--- a/biology/Botanique/Salix_chaenomeloides/Salix_chaenomeloides.xlsx
+++ b/biology/Botanique/Salix_chaenomeloides/Salix_chaenomeloides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix chaenomeloides est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un saule natif du Japon, de Corée et de Chine.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre à feuilles caduques atteignant 10 à 20 m de haut, avec des feuilles gris brun ou brun rougeâtre et des branches brillantes. Le pétiole mesure de 5 à 12 millimètres de long, duveteux quand ils sont jeunes mais devenant glabres en vieillissant.Les feuilles mesurent de 4 à 8 cm de long sur 1,8 à 3,5 ou 4 centimètres de large. Les deux côtés sont glabres, le dessus est vert, le dessous gris brun ou pâle[1].
-Les chatons mâles font 4 à 5 cm de long ; les chatons femelles mesurent de 4 à  5,5 cm de long pour un diamètre d'environ 1 cm. Salix chaenomeloides fleurit en avril, les fruits sont mûrs en mai[1].
-La répartition naturelle se trouve en Corée (Halbinsel) et dans les provinces chinoises du Hebei, du  Jiangsu, du Liaoning, du Shaanxi et du Sichuan, à une altitude inférieure à 1 000 mètres[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre à feuilles caduques atteignant 10 à 20 m de haut, avec des feuilles gris brun ou brun rougeâtre et des branches brillantes. Le pétiole mesure de 5 à 12 millimètres de long, duveteux quand ils sont jeunes mais devenant glabres en vieillissant.Les feuilles mesurent de 4 à 8 cm de long sur 1,8 à 3,5 ou 4 centimètres de large. Les deux côtés sont glabres, le dessus est vert, le dessous gris brun ou pâle.
+Les chatons mâles font 4 à 5 cm de long ; les chatons femelles mesurent de 4 à  5,5 cm de long pour un diamètre d'environ 1 cm. Salix chaenomeloides fleurit en avril, les fruits sont mûrs en mai.
+La répartition naturelle se trouve en Corée (Halbinsel) et dans les provinces chinoises du Hebei, du  Jiangsu, du Liaoning, du Shaanxi et du Sichuan, à une altitude inférieure à 1 000 mètres.
 </t>
         </is>
       </c>
